--- a/probabilidadyestadistica/ejercicioalturas/covarianzacorrelacionmanosalturas.xlsx
+++ b/probabilidadyestadistica/ejercicioalturas/covarianzacorrelacionmanosalturas.xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrah\Desktop\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abrah\Desktop\excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8CDFBF2B-77B4-48DD-B46C-D68FA020143F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCB041E3-6468-427D-A9EE-AD247ECFC419}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2085" yWindow="1950" windowWidth="25545" windowHeight="11385" xr2:uid="{B6C3255B-6F41-4F5C-B481-B41BEEA303DD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" activeTab="4" xr2:uid="{B6C3255B-6F41-4F5C-B481-B41BEEA303DD}"/>
   </bookViews>
   <sheets>
     <sheet name="Covarianza" sheetId="3" r:id="rId1"/>
     <sheet name="Correlación" sheetId="4" r:id="rId2"/>
-    <sheet name="Hoja1" sheetId="1" r:id="rId3"/>
+    <sheet name="histograma altura" sheetId="6" r:id="rId3"/>
+    <sheet name="histograma manos" sheetId="7" r:id="rId4"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>mano</t>
   </si>
@@ -45,6 +47,54 @@
   </si>
   <si>
     <t>Columna 2</t>
+  </si>
+  <si>
+    <t>media altura</t>
+  </si>
+  <si>
+    <t>media manos</t>
+  </si>
+  <si>
+    <t>rango mano</t>
+  </si>
+  <si>
+    <t>rango altura</t>
+  </si>
+  <si>
+    <t>Clase</t>
+  </si>
+  <si>
+    <t>y mayor...</t>
+  </si>
+  <si>
+    <t>Frecuencia</t>
+  </si>
+  <si>
+    <t>DS mano</t>
+  </si>
+  <si>
+    <t>DS altura</t>
+  </si>
+  <si>
+    <t>interseccion</t>
+  </si>
+  <si>
+    <t>pendiente</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>r cuadrado</t>
+  </si>
+  <si>
+    <t>estimado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">real mano menos media </t>
+  </si>
+  <si>
+    <t>estimado manos - media</t>
   </si>
 </sst>
 </file>
@@ -108,13 +158,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -130,6 +182,1573 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Histograma</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Frecuencia</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'histograma altura'!$A$2:$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>162</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>166</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>174</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>190</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>y mayor...</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'histograma altura'!$B$2:$B$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-323E-4588-80DE-EC6046FB6F20}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1323082112"/>
+        <c:axId val="1329918480"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1323082112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Clase</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1329918480"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1329918480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Frecuencia</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1323082112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Histograma</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Frecuencia</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'histograma manos'!$A$2:$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>y mayor...</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'histograma manos'!$B$2:$B$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-BF59-4D01-98DF-9CB23DCBAE5E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="1471178128"/>
+        <c:axId val="1473201056"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1471178128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Clase</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1473201056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1473201056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>Frecuencia</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1471178128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.9012904636920387E-2"/>
+                  <c:y val="0.29294510061242346"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-ES"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$B$2:$B$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>180</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>169</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>177</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>171</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>182</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>175</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>167</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>186</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>170</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>174</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$2:$A$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9FDE-490C-8DFC-50C4AD884256}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2041751808"/>
+        <c:axId val="1860545840"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2041751808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="200"/>
+          <c:min val="150"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1860545840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1860545840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2041751808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E219E57E-2215-41D5-A9EB-E8B41F8F40F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7835670F-DD88-4758-8D91-C57456B778E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>128587</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E21129F-05F3-4C06-87EA-83326A5814CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -431,7 +2050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4678A846-6947-4371-844D-F49B4B846256}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -518,32 +2137,232 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D9A94A-7185-4D91-8467-087B0F809DF5}">
-  <dimension ref="A1:G18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06609AD7-E220-46EC-9FB6-3016D8B04D3D}">
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection sqref="A1:B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>158</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>162</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>166</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
+        <v>170</v>
+      </c>
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <v>174</v>
+      </c>
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
+        <v>178</v>
+      </c>
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
+        <v>182</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
+        <v>186</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <v>190</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A10">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F162A39-F934-4C09-B155-F9E8F1E26812}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>15</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
+        <v>18</v>
+      </c>
+      <c r="B3" s="3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A4">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D9A94A-7185-4D91-8467-087B0F809DF5}">
+  <dimension ref="A1:L41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1">
+        <f>D20/E20</f>
+        <v>0.64190252969817829</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>20</v>
       </c>
       <c r="B2">
         <v>180</v>
+      </c>
+      <c r="C2">
+        <f>(I12*B2)+I19</f>
+        <v>19.563034797490012</v>
+      </c>
+      <c r="D2">
+        <f>(C2-G8)^2</f>
+        <v>1.6101507346584096</v>
+      </c>
+      <c r="E2">
+        <f>(A2-G8)^2</f>
+        <v>2.9100346020761281</v>
       </c>
       <c r="F2" t="s">
         <v>2</v>
@@ -553,20 +2372,51 @@
         <v>8.7231833910034595</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>20</v>
       </c>
       <c r="B3">
         <v>178</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C3">
+        <f>(I12*B3)+I19</f>
+        <v>19.20350827153451</v>
+      </c>
+      <c r="D3">
+        <f>(C3-G8)^2</f>
+        <v>0.82699130788428055</v>
+      </c>
+      <c r="E3">
+        <f>(A3-G8)^2</f>
+        <v>2.9100346020761281</v>
+      </c>
+      <c r="I3">
+        <f>(18+12.794)/0.1798</f>
+        <v>171.26807563959957</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>17</v>
       </c>
       <c r="B4">
         <v>165</v>
+      </c>
+      <c r="C4">
+        <f>(I12*B4)+I19</f>
+        <v>16.866585852823729</v>
+      </c>
+      <c r="D4">
+        <f>(C4-G8)^2</f>
+        <v>2.0378470235520663</v>
+      </c>
+      <c r="E4">
+        <f>(A4-G8)^2</f>
+        <v>1.674740484429063</v>
       </c>
       <c r="F4" t="s">
         <v>3</v>
@@ -575,120 +2425,430 @@
         <f>CORREL(B2:B18,A2:A18)</f>
         <v>0.8011881986763022</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <f>0.1798*172-12.794</f>
+        <v>18.131599999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>16</v>
       </c>
       <c r="B5">
         <v>163</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <f>(I12*B5)+I19</f>
+        <v>16.507059326868223</v>
+      </c>
+      <c r="D5">
+        <f>(C5-G8)^2</f>
+        <v>3.1935774397624468</v>
+      </c>
+      <c r="E5">
+        <f>(A5-G8)^2</f>
+        <v>5.262975778546708</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>18</v>
       </c>
       <c r="B6">
         <v>177</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C6">
+        <f>(I12*B6)+I19</f>
+        <v>19.023745008556759</v>
+      </c>
+      <c r="D6">
+        <f>(C6-G8)^2</f>
+        <v>0.53235608664644019</v>
+      </c>
+      <c r="E6">
+        <f>(A6-G8)^2</f>
+        <v>8.6505190311418068E-2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6">
+        <f>AVERAGE(B2:B18)</f>
+        <v>172.94117647058823</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>18</v>
       </c>
       <c r="B7">
         <v>169</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C7">
+        <f>(I12*B7)+I19</f>
+        <v>17.58563890473474</v>
+      </c>
+      <c r="D7">
+        <f>(C7-G8)^2</f>
+        <v>0.50194212832511387</v>
+      </c>
+      <c r="E7">
+        <f>(A7-G8)^2</f>
+        <v>8.6505190311418068E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>19</v>
       </c>
       <c r="B8">
         <v>177</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <f>(I12*B8)+I19</f>
+        <v>19.023745008556759</v>
+      </c>
+      <c r="D8">
+        <f>(C8-G8)^2</f>
+        <v>0.53235608664644019</v>
+      </c>
+      <c r="E8">
+        <f>(A8-G8)^2</f>
+        <v>0.4982698961937731</v>
+      </c>
+      <c r="F8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <f>AVERAGE(A2:A18)</f>
+        <v>18.294117647058822</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>18</v>
       </c>
       <c r="B9">
         <v>171</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <f>(I12*B9)+I19</f>
+        <v>17.945165430690242</v>
+      </c>
+      <c r="D9">
+        <f>(C9-G8)^2</f>
+        <v>0.12176764930854464</v>
+      </c>
+      <c r="E9">
+        <f>(A9-G8)^2</f>
+        <v>8.6505190311418068E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>18</v>
       </c>
       <c r="B10">
         <v>176</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C10">
+        <f>(I12*B10)+I19</f>
+        <v>18.843981745579004</v>
+      </c>
+      <c r="D10">
+        <f>(C10-G8)^2</f>
+        <v>0.30235052684141206</v>
+      </c>
+      <c r="E10">
+        <f>(A10-G8)^2</f>
+        <v>8.6505190311418068E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>21</v>
       </c>
       <c r="B11">
         <v>182</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C11">
+        <f>(I12*B11)+I19</f>
+        <v>19.922561323445521</v>
+      </c>
+      <c r="D11">
+        <f>(C11-G8)^2</f>
+        <v>2.6518288071638265</v>
+      </c>
+      <c r="E11">
+        <f>(A11-G8)^2</f>
+        <v>7.3217993079584831</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>20</v>
       </c>
       <c r="B12">
         <v>175</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C12">
+        <f>(I12*B12)+I19</f>
+        <v>18.664218482601253</v>
+      </c>
+      <c r="D12">
+        <f>(C12-G8)^2</f>
+        <v>0.13697462846920533</v>
+      </c>
+      <c r="E12">
+        <f>(A12-G8)^2</f>
+        <v>2.9100346020761281</v>
+      </c>
+      <c r="H12" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12">
+        <f>G4*(I24/I25)</f>
+        <v>0.17976326297775239</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>17</v>
       </c>
       <c r="B13">
         <v>172</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <f>(I12*B13)+I19</f>
+        <v>18.124928693667997</v>
+      </c>
+      <c r="D13">
+        <f>(C13-G8)^2</f>
+        <v>2.8624901949483077E-2</v>
+      </c>
+      <c r="E13">
+        <f>(A13-G8)^2</f>
+        <v>1.674740484429063</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>15</v>
       </c>
       <c r="B14">
         <v>167</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C14">
+        <f>(I12*B14)+I19</f>
+        <v>17.226112378779234</v>
+      </c>
+      <c r="D14">
+        <f>(C14-G8)^2</f>
+        <v>1.1406352530729551</v>
+      </c>
+      <c r="E14">
+        <f>(A14-G8)^2</f>
+        <v>10.851211072664354</v>
+      </c>
+      <c r="F14">
+        <f>(G4)^2</f>
+        <v>0.64190252969817785</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>20</v>
       </c>
       <c r="B15">
         <v>186</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C15">
+        <f>(I12*B15)+I19</f>
+        <v>20.641614375356532</v>
+      </c>
+      <c r="D15">
+        <f>(C15-G8)^2</f>
+        <v>5.5107408893684511</v>
+      </c>
+      <c r="E15">
+        <f>(A15-G8)^2</f>
+        <v>2.9100346020761281</v>
+      </c>
+      <c r="H15">
+        <f>LINEST(A2:A18,B2:B18)</f>
+        <v>0.17976326297775241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>18</v>
       </c>
       <c r="B16">
         <v>170</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <f>(I12*B16)+I19</f>
+        <v>17.765402167712491</v>
+      </c>
+      <c r="D16">
+        <f>(C16-G8)^2</f>
+        <v>0.27954005810042115</v>
+      </c>
+      <c r="E16">
+        <f>(A16-G8)^2</f>
+        <v>8.6505190311418068E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>17</v>
       </c>
       <c r="B17">
         <v>158</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <f>(I12*B17)+I19</f>
+        <v>15.608243011979461</v>
+      </c>
+      <c r="D17">
+        <f>(C17-G8)^2</f>
+        <v>7.2139225553626938</v>
+      </c>
+      <c r="E17">
+        <f>(A17-G8)^2</f>
+        <v>1.674740484429063</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>19</v>
       </c>
       <c r="B18">
         <v>174</v>
       </c>
+      <c r="C18">
+        <f>(I12*B18)+I19</f>
+        <v>18.484455219623502</v>
+      </c>
+      <c r="D18">
+        <f>(C18-G8)^2</f>
+        <v>3.6228391529814691E-2</v>
+      </c>
+      <c r="E18">
+        <f>(A18-G8)^2</f>
+        <v>0.4982698961937731</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I19">
+        <f>G8-I12*G6</f>
+        <v>-12.794352538505414</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <f>SUM(D2:D18)</f>
+        <v>26.657834468642001</v>
+      </c>
+      <c r="E20">
+        <f>SUM(E2:E18)</f>
+        <v>41.529411764705898</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H21" s="5">
+        <f>INTERCEPT(A2:A18,B2:B18)</f>
+        <v>-12.794352538505414</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I24">
+        <f>_xlfn.STDEV.S(A2:A18)</f>
+        <v>1.6110829386763794</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25">
+        <f>_xlfn.STDEV.S(B2:B18)</f>
+        <v>7.1804473070562791</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>15</v>
+      </c>
+      <c r="B33">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>16.2</v>
+      </c>
+      <c r="B34">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="B35">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="B36">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>190</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>